--- a/Health/HealthCare Facilities/Admissions/HealthCareAdmissionSG.xlsx
+++ b/Health/HealthCare Facilities/Admissions/HealthCareAdmissionSG.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junen\Documents\BAVP\Health\HealthCare Facilities\Admissions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EC7226C4-AD02-43B8-9429-47C75AD53428}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAC8289-F9E0-4B08-ABF8-9DCE73913B42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HealthCareAdmissionSG" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
   <si>
     <t>HealthCare Facilities</t>
   </si>
@@ -45,12 +45,18 @@
   <si>
     <t>Dental Clinics</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>No. of Admitted Patients</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +187,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -884,296 +896,881 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2011</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2015</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2017</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>427305</v>
+        <v>2008</v>
       </c>
       <c r="C2">
-        <v>446384</v>
-      </c>
-      <c r="D2">
-        <v>459902</v>
-      </c>
-      <c r="E2">
-        <v>474193</v>
-      </c>
-      <c r="F2">
-        <v>489574</v>
-      </c>
-      <c r="G2">
-        <v>499889</v>
-      </c>
-      <c r="H2">
-        <v>546256</v>
-      </c>
-      <c r="I2">
-        <v>568117</v>
-      </c>
-      <c r="J2">
-        <v>584819</v>
-      </c>
-      <c r="K2">
-        <v>618136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>412200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9759</v>
+        <v>2008</v>
       </c>
       <c r="C3">
-        <v>9628</v>
-      </c>
-      <c r="D3">
-        <v>8382</v>
-      </c>
-      <c r="E3">
-        <v>8110</v>
-      </c>
-      <c r="F3">
-        <v>9050</v>
-      </c>
-      <c r="G3">
-        <v>8986</v>
-      </c>
-      <c r="H3">
-        <v>9028</v>
-      </c>
-      <c r="I3">
-        <v>9316</v>
-      </c>
-      <c r="J3">
-        <v>9215</v>
-      </c>
-      <c r="K3">
-        <v>9234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7534</v>
+        <v>2008</v>
       </c>
       <c r="C4">
-        <v>7679</v>
-      </c>
-      <c r="D4">
-        <v>7751</v>
-      </c>
-      <c r="E4">
-        <v>8702</v>
-      </c>
-      <c r="F4">
-        <v>9067</v>
-      </c>
-      <c r="G4">
-        <v>10670</v>
-      </c>
-      <c r="H4">
-        <v>13881</v>
-      </c>
-      <c r="I4">
-        <v>16355</v>
-      </c>
-      <c r="J4">
-        <v>17902</v>
-      </c>
-      <c r="K4">
-        <v>20043</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4023686</v>
+        <v>2008</v>
       </c>
       <c r="C5">
-        <v>4234139</v>
-      </c>
-      <c r="D5">
-        <v>4353385</v>
-      </c>
-      <c r="E5">
-        <v>4436621</v>
-      </c>
-      <c r="F5">
-        <v>4535104</v>
-      </c>
-      <c r="G5">
-        <v>4704117</v>
-      </c>
-      <c r="H5">
-        <v>4959471</v>
-      </c>
-      <c r="I5">
-        <v>4979307</v>
-      </c>
-      <c r="J5">
-        <v>5111720</v>
-      </c>
-      <c r="K5">
-        <v>5290741</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3827275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>858781</v>
+        <v>2008</v>
       </c>
       <c r="C6">
-        <v>934485</v>
-      </c>
-      <c r="D6">
-        <v>985289</v>
-      </c>
-      <c r="E6">
-        <v>1006800</v>
-      </c>
-      <c r="F6">
-        <v>968371</v>
-      </c>
-      <c r="G6">
-        <v>965426</v>
-      </c>
-      <c r="H6">
-        <v>1008718</v>
-      </c>
-      <c r="I6">
-        <v>993458</v>
-      </c>
-      <c r="J6">
-        <v>1005403</v>
-      </c>
-      <c r="K6">
-        <v>1081474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>788539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4314496</v>
+        <v>2008</v>
       </c>
       <c r="C7">
-        <v>4502043</v>
-      </c>
-      <c r="D7">
-        <v>4614038</v>
-      </c>
-      <c r="E7">
-        <v>4623623</v>
-      </c>
-      <c r="F7">
-        <v>4648374</v>
-      </c>
-      <c r="G7">
-        <v>4874697</v>
-      </c>
-      <c r="H7">
-        <v>5263999</v>
-      </c>
-      <c r="I7">
-        <v>5925787</v>
-      </c>
-      <c r="J7">
-        <v>6323814</v>
-      </c>
-      <c r="K7">
-        <v>6691295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3971589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>2008</v>
+      </c>
+      <c r="C8">
+        <v>883216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2009</v>
+      </c>
+      <c r="C9">
+        <v>413592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2009</v>
+      </c>
+      <c r="C10">
+        <v>9060</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2009</v>
+      </c>
+      <c r="C11">
+        <v>7612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>2009</v>
+      </c>
+      <c r="C12">
+        <v>3886310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2009</v>
+      </c>
+      <c r="C13">
+        <v>821304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2009</v>
+      </c>
+      <c r="C14">
+        <v>4157903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2009</v>
+      </c>
+      <c r="C15">
+        <v>838815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2010</v>
+      </c>
+      <c r="C16">
+        <v>427305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2010</v>
+      </c>
+      <c r="C17">
+        <v>9759</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>2010</v>
+      </c>
+      <c r="C18">
+        <v>7534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>2010</v>
+      </c>
+      <c r="C19">
+        <v>4023686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>2010</v>
+      </c>
+      <c r="C20">
+        <v>858781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>2010</v>
+      </c>
+      <c r="C21">
+        <v>4314496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>2010</v>
+      </c>
+      <c r="C22">
         <v>862874</v>
       </c>
-      <c r="C8">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2011</v>
+      </c>
+      <c r="C23">
+        <v>446384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>2011</v>
+      </c>
+      <c r="C24">
+        <v>9628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>2011</v>
+      </c>
+      <c r="C25">
+        <v>7679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>2011</v>
+      </c>
+      <c r="C26">
+        <v>4234139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>2011</v>
+      </c>
+      <c r="C27">
+        <v>934485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>2011</v>
+      </c>
+      <c r="C28">
+        <v>4502043</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>2011</v>
+      </c>
+      <c r="C29">
         <v>875802</v>
       </c>
-      <c r="D8">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>2012</v>
+      </c>
+      <c r="C30">
+        <v>459902</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>2012</v>
+      </c>
+      <c r="C31">
+        <v>8382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>2012</v>
+      </c>
+      <c r="C32">
+        <v>7751</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>2012</v>
+      </c>
+      <c r="C33">
+        <v>4353385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>2012</v>
+      </c>
+      <c r="C34">
+        <v>985289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>2012</v>
+      </c>
+      <c r="C35">
+        <v>4614038</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>2012</v>
+      </c>
+      <c r="C36">
         <v>893058</v>
       </c>
-      <c r="E8">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>2013</v>
+      </c>
+      <c r="C37">
+        <v>474193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>2013</v>
+      </c>
+      <c r="C38">
+        <v>8110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>2013</v>
+      </c>
+      <c r="C39">
+        <v>8702</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>2013</v>
+      </c>
+      <c r="C40">
+        <v>4436621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>2013</v>
+      </c>
+      <c r="C41">
+        <v>1006800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>2013</v>
+      </c>
+      <c r="C42">
+        <v>4623623</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>2013</v>
+      </c>
+      <c r="C43">
         <v>943971</v>
       </c>
-      <c r="F8">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>2014</v>
+      </c>
+      <c r="C44">
+        <v>489574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>2014</v>
+      </c>
+      <c r="C45">
+        <v>9050</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>2014</v>
+      </c>
+      <c r="C46">
+        <v>9067</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>2014</v>
+      </c>
+      <c r="C47">
+        <v>4535104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>2014</v>
+      </c>
+      <c r="C48">
+        <v>968371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>2014</v>
+      </c>
+      <c r="C49">
+        <v>4648374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>2014</v>
+      </c>
+      <c r="C50">
         <v>966240</v>
       </c>
-      <c r="G8">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>2015</v>
+      </c>
+      <c r="C51">
+        <v>499889</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>2015</v>
+      </c>
+      <c r="C52">
+        <v>8986</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>2015</v>
+      </c>
+      <c r="C53">
+        <v>10670</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>2015</v>
+      </c>
+      <c r="C54">
+        <v>4704117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>2015</v>
+      </c>
+      <c r="C55">
+        <v>965426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>2015</v>
+      </c>
+      <c r="C56">
+        <v>4874697</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>2015</v>
+      </c>
+      <c r="C57">
         <v>1007992</v>
       </c>
-      <c r="H8">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>2016</v>
+      </c>
+      <c r="C58">
+        <v>546256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>2016</v>
+      </c>
+      <c r="C59">
+        <v>9028</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>2016</v>
+      </c>
+      <c r="C60">
+        <v>13881</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>2016</v>
+      </c>
+      <c r="C61">
+        <v>4959471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>2016</v>
+      </c>
+      <c r="C62">
+        <v>1008718</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>2016</v>
+      </c>
+      <c r="C63">
+        <v>5263999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>2016</v>
+      </c>
+      <c r="C64">
         <v>1058533</v>
       </c>
-      <c r="I8">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>2017</v>
+      </c>
+      <c r="C65">
+        <v>568117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>2017</v>
+      </c>
+      <c r="C66">
+        <v>9316</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>2017</v>
+      </c>
+      <c r="C67">
+        <v>16355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>2017</v>
+      </c>
+      <c r="C68">
+        <v>4979307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>2017</v>
+      </c>
+      <c r="C69">
+        <v>993458</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>2017</v>
+      </c>
+      <c r="C70">
+        <v>5925787</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>2017</v>
+      </c>
+      <c r="C71">
         <v>1061516</v>
       </c>
-      <c r="J8">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>2018</v>
+      </c>
+      <c r="C72">
+        <v>584819</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>2018</v>
+      </c>
+      <c r="C73">
+        <v>9215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>2018</v>
+      </c>
+      <c r="C74">
+        <v>17902</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>2018</v>
+      </c>
+      <c r="C75">
+        <v>5111720</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>2018</v>
+      </c>
+      <c r="C76">
+        <v>1005403</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>2018</v>
+      </c>
+      <c r="C77">
+        <v>6323814</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>2018</v>
+      </c>
+      <c r="C78">
         <v>1078037</v>
       </c>
-      <c r="K8">
-        <v>1070809</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>